--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1321"/>
+  <dimension ref="A1:R1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73933,7 +73933,7 @@
         <v>23</v>
       </c>
       <c r="O1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1312" t="n">
         <v>0</v>
@@ -74445,7 +74445,63 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>814</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>820</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>796.8499755859375</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>802.4500122070312</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>802.4500122070312</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>246922</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1322"/>
+  <dimension ref="A1:R1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74501,7 +74501,387 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>802.4500122070312</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>830.3499755859375</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>800.5</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>823.25</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>823.25</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>87303</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>829.7000122070312</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>854.5999755859375</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>803</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>835.3499755859375</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>835.3499755859375</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>487169</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>848.7999877929688</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>870</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>834.5</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>842.1500244140625</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>842.1500244140625</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>221720</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>848.9000244140625</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>848.9000244140625</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>825.5499877929688</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>830.5</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>830.5</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>52473</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>830.5499877929688</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>833.9500122070312</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>809.2000122070312</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>813.9500122070312</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>813.9500122070312</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>56675</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>814.0499877929688</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>832</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>801.4000244140625</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>806.9500122070312</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>806.9500122070312</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>81814</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>807.4500122070312</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>820</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>800.0999755859375</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>803.3499755859375</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>803.3499755859375</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>56613</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -74557,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74611,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74665,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74719,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74773,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74827,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74881,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74897,6 +74897,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>804.4500122070312</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>874.9000244140625</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>803.25</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>861.3499755859375</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>861.3499755859375</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>263497</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>869</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>909.9000244140625</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>842</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>849</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>849</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>1064844</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>850.5999755859375</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>862</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>846.6500244140625</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>857.75</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>857.75</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>85578</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>855</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>858</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>841.9500122070312</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>851.5</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>851.5</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>219912</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>852.5</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>858</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>844</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>849.75</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>849.75</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>53904</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1334"/>
+  <dimension ref="A1:R1343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74949,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74995,7 +74997,7 @@
         <v>27</v>
       </c>
       <c r="O1331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1331" t="n">
         <v>0</v>
@@ -75003,7 +75005,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75057,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75111,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75165,7 +75173,495 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>861.1500244140625</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>870</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>841.6500244140625</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>844.7000122070312</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>844.7000122070312</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>47827</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>848.75</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>864.7000122070312</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>840</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>842.9000244140625</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>842.9000244140625</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>178361</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>843</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>850.5</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>831.0499877929688</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>841.4500122070312</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>841.4500122070312</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>47928</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>843</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>853.6500244140625</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>831.5</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>836.25</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>836.25</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>40285</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>838</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>840.4000244140625</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>820.5499877929688</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>822.2000122070312</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>822.2000122070312</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>50860</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>824.25</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>832.7999877929688</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>783</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>792.0499877929688</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>792.0499877929688</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>291088</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>795.9000244140625</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>803.7999877929688</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>772</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>780.6500244140625</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>780.6500244140625</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>285248</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>784.4000244140625</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>784.4000244140625</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>760.25</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>770.3499755859375</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>770.3499755859375</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>314896</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>765.0499877929688</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>777.4000244140625</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>754.0499877929688</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>765.4500122070312</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>765.4500122070312</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>98778</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1343"/>
+  <dimension ref="A1:R1353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75229,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75283,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75337,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75391,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75445,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75499,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75553,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75607,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75661,7 +75677,549 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>765</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>826</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>753.6500244140625</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>811.7999877929688</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>811.7999877929688</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>687490</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>824</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>824</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>784.75</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>805.5499877929688</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>805.5499877929688</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>104663</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>815</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>865.3499755859375</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>798.25</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>857.5999755859375</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>857.5999755859375</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>301747</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>843.5499877929688</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>845.1500244140625</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>824.0499877929688</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>828.0999755859375</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>828.0999755859375</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>92199</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>825</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>840.3499755859375</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>811.0499877929688</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>835.1500244140625</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>835.1500244140625</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>147972</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>840.5</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>856</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>823.1500244140625</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>826.2999877929688</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>826.2999877929688</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>99208</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>831</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>869.4000244140625</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>831</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>852.25</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>852.25</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>471077</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>852</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>861.4500122070312</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>840.0999755859375</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>843.5499877929688</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>843.5499877929688</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>42375</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>843.0499877929688</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>849.3499755859375</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>829.1500244140625</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>833.0499877929688</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>833.0499877929688</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>41233</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>829.9500122070312</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>838.7999877929688</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>815.4000244140625</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>822.7000122070312</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>822.7000122070312</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>46542</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1353"/>
+  <dimension ref="A1:R1358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75725,7 +75725,7 @@
         <v>30</v>
       </c>
       <c r="O1344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1344" t="n">
         <v>0</v>
@@ -75733,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75787,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75841,7 +75845,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75895,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75949,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76003,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76057,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76111,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76165,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76219,7 +76237,279 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>801</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>819.5</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>791.5499877929688</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>802.4000244140625</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>802.4000244140625</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>96805</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>795</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>817</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>775.0999755859375</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>778.0499877929688</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>778.0499877929688</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>83463</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>788.75</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>809.4000244140625</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>779.9500122070312</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>801.75</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>801.75</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>49138</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>800</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>806.7000122070312</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>783.5</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>789.2999877929688</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>789.2999877929688</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>37211</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>794.1500244140625</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>815.1500244140625</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>782.0999755859375</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>786</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>786</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>25343</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1358"/>
+  <dimension ref="A1:R1362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76061,7 +76061,7 @@
         <v>31</v>
       </c>
       <c r="O1350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1350" t="n">
         <v>0</v>
@@ -76293,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76347,7 +76349,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76401,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76455,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76509,7 +76517,225 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>787.0999755859375</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>798.8499755859375</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>775</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>789.0499877929688</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>789.0499877929688</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>39531</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>790.5499877929688</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>797.4500122070312</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>770</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>772.3499755859375</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>772.3499755859375</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>64068</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>776.7000122070312</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>782.9000244140625</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>761</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>766.4500122070312</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>766.4500122070312</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>31190</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>763.5</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>793.2999877929688</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>763.5</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>780.3499755859375</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>780.3499755859375</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>79607</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1362"/>
+  <dimension ref="A1:R1367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76573,7 +76573,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76627,7 +76629,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76681,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76735,7 +76741,279 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>820</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>820</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>765.4500122070312</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>776.1500244140625</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>776.1500244140625</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>171543</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>778.9500122070312</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>780.0999755859375</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>765</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>767.5499877929688</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>767.5499877929688</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>93597</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>767.5499877929688</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>776</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>763.2000122070312</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>774.2000122070312</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>774.2000122070312</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>29565</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>774.4500122070312</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>797.9000244140625</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>774.4500122070312</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>794.4500122070312</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>794.4500122070312</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>127491</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>792.8499755859375</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>804.9500122070312</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>789.5499877929688</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>796.8499755859375</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>796.8499755859375</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>68445</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1367"/>
+  <dimension ref="A1:R1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76677,7 +76677,7 @@
         <v>33</v>
       </c>
       <c r="O1361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1361" t="n">
         <v>0</v>
@@ -76797,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76851,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76905,7 +76909,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76959,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -77013,7 +77021,279 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>800.0499877929688</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>828.9500122070312</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>794.0499877929688</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>824.3499755859375</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>824.3499755859375</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>138853</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>830</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>832</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>804.0499877929688</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>813.6500244140625</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>813.6500244140625</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>95918</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>818.0999755859375</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>824.5</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>803.2000122070312</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>810.4000244140625</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>810.4000244140625</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>108375</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>800</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>845</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>797</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>801.9000244140625</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>801.9000244140625</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>455191</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>802</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>840</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>802</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>835.1500244140625</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>835.1500244140625</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>134900</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1372"/>
+  <dimension ref="A1:R1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77077,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77131,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77185,7 +77189,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77239,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77293,7 +77301,279 @@
       <c r="Q1372" t="n">
         <v>1</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>856</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>830</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>855.75</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>855.75</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>909609</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>855</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>853.2000122070312</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>876.0499877929688</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>876.0499877929688</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>249602</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>867</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>899.9000244140625</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>864.0999755859375</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>877.9500122070312</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>877.9500122070312</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>295107</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>875.4000244140625</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>924</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>871.0499877929688</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>899.8499755859375</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>899.8499755859375</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>793717</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>900</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>917.75</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>882.4000244140625</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>885.4000244140625</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>885.4000244140625</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>249722</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1377"/>
+  <dimension ref="A1:R1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77357,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77411,7 +77413,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77465,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77519,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77573,7 +77581,279 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>886.75</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>917.7000122070312</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>874.8499755859375</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>487451</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>904.4000244140625</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>880.3499755859375</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>899.5999755859375</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>899.5999755859375</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>185328</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>901.25</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>912</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>878</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>882.2000122070312</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>882.2000122070312</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>134869</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>887.9000244140625</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>900.1500244140625</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>872</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>85709</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>900</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>909.7000122070312</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>882.5499877929688</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>888</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>888</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>136889</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1382"/>
+  <dimension ref="A1:R1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77517,7 +77517,7 @@
         <v>36</v>
       </c>
       <c r="O1376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1376" t="n">
         <v>0</v>
@@ -77637,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77691,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77745,7 +77749,9 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
@@ -77799,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77853,7 +77861,279 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>888</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>919</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>876.7000122070312</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>881.6500244140625</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>881.6500244140625</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>223465</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>883.6500244140625</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>891.9500122070312</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>872.4000244140625</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>880.7000122070312</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>880.7000122070312</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>69093</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>881</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>899.7000122070312</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>851.9500122070312</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>858.5499877929688</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>858.5499877929688</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>92254</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>868</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>888.5</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>845.7999877929688</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>881.3499755859375</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>881.3499755859375</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>121467</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>885.4500122070312</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>894.3499755859375</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>870.0499877929688</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>887.0499877929688</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>887.0499877929688</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>61474</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1387"/>
+  <dimension ref="A1:R1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77917,7 +77917,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77971,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78025,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78079,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78133,7 +78141,279 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>892.9500122070312</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>894.4500122070312</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>879.9500122070312</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>888.5</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>888.5</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>63667</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>890</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>937</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>878.5</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>914.8499755859375</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>914.8499755859375</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>669186</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>918.9500122070312</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>935.7000122070312</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>885.5499877929688</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>296980</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>891.8499755859375</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>891.8499755859375</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>863.0499877929688</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>880</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>880</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>335908</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>878.5999755859375</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>899</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>878.5999755859375</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>890.3499755859375</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>890.3499755859375</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>173361</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1392"/>
+  <dimension ref="A1:R1396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78077,7 +78077,7 @@
         <v>38</v>
       </c>
       <c r="O1386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1386" t="n">
         <v>0</v>
@@ -78197,7 +78197,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78251,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78305,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78359,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78413,7 +78421,225 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>892</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>901</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>875.5499877929688</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>879.8499755859375</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>879.8499755859375</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>210142</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>871.5499877929688</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>862</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>865.0999755859375</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>865.0999755859375</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>141845</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>864.2000122070312</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>883.7999877929688</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>852.9500122070312</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>860.7000122070312</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>860.7000122070312</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>147377</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>855.1500244140625</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>883.9000244140625</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>851.3499755859375</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>862.0999755859375</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>862.0999755859375</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>123122</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1396"/>
+  <dimension ref="A1:R1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78245,7 +78245,7 @@
         <v>39</v>
       </c>
       <c r="O1389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1389" t="n">
         <v>0</v>
@@ -78477,7 +78477,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78531,7 +78533,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78585,7 +78589,9 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78639,7 +78645,279 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>860.0499877929688</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>866.75</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>826</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>830.5499877929688</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>830.5499877929688</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>146742</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>836.7999877929688</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>896.5</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>815.1500244140625</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>885.5999755859375</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>885.5999755859375</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>204603</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>882.0499877929688</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>913</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>863.2999877929688</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>890.5999755859375</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>890.5999755859375</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>216871</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>896.4500122070312</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>875.0999755859375</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>883.9000244140625</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>883.9000244140625</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>95778</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>885.9000244140625</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>894.2000122070312</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>873.5999755859375</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>890</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>890</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>53116</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1401"/>
+  <dimension ref="A1:R1406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78701,7 +78701,9 @@
       <c r="Q1397" t="n">
         <v>1</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78755,7 +78757,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78809,7 +78813,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78863,7 +78869,9 @@
       <c r="Q1400" t="n">
         <v>2</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78917,7 +78925,279 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>890</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>904</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>878.3499755859375</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>887.0999755859375</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>887.0999755859375</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>64618</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>887.4500122070312</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>909</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>883.5999755859375</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>899.7999877929688</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>899.7999877929688</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>237948</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>899.4000244140625</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>899.7999877929688</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>881.0499877929688</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>888.7999877929688</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>888.7999877929688</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>52393</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>888.7999877929688</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>894.9000244140625</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>859</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>862.7999877929688</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>862.7999877929688</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>84095</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>861</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>879.9500122070312</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>839.9500122070312</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>873.25</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>873.25</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>89353</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1406"/>
+  <dimension ref="A1:R1411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78749,7 +78749,7 @@
         <v>41</v>
       </c>
       <c r="O1398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1398" t="n">
         <v>0</v>
@@ -78981,7 +78981,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -79035,7 +79037,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79089,7 +79093,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79143,7 +79149,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79197,7 +79205,279 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>873.5499877929688</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>877.9500122070312</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>862.0999755859375</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>866.5499877929688</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>866.5499877929688</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>39330</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>866.7000122070312</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>888.9000244140625</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>832</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>855.0499877929688</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>855.0499877929688</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>228908</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>855.0499877929688</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>856.25</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>821</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>836.3499755859375</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>836.3499755859375</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>164470</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>840.5</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>864.4000244140625</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>830</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>836.4500122070312</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>836.4500122070312</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>125979</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>827</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>898</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>803.4000244140625</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>844.6500244140625</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>844.6500244140625</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>2751543</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1411"/>
+  <dimension ref="A1:R1416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79261,7 +79261,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79315,7 +79317,9 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" s="2" t="n">
@@ -79369,7 +79373,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79423,7 +79429,9 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79477,7 +79485,279 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>845.2000122070312</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>863.0499877929688</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>820</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>833.75</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>833.75</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>256796</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>846.3499755859375</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>848</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>821</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>831.0999755859375</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>831.0999755859375</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>90687</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>827.9500122070312</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>845</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>825.5</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>840.4500122070312</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>840.4500122070312</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>101986</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>838.4500122070312</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>909.7000122070312</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>836.5999755859375</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>870.9000244140625</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>870.9000244140625</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>968740</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>905</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>907.8499755859375</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>880</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>895.4000244140625</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>895.4000244140625</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>69946</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1416"/>
+  <dimension ref="A1:R1421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79477,7 +79477,7 @@
         <v>43</v>
       </c>
       <c r="O1411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1411" t="n">
         <v>0</v>
@@ -79541,7 +79541,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79595,7 +79597,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79649,7 +79653,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79703,7 +79709,9 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" s="2" t="n">
@@ -79757,7 +79765,279 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>895.4000244140625</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>899.2000122070312</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>856</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>866.9500122070312</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>866.9500122070312</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>85796</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>861</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>848.0999755859375</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>861.6500244140625</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>861.6500244140625</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>94439</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>861.6500244140625</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>884.5499877929688</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>860</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>873.2000122070312</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>873.2000122070312</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>115529</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>878</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>884.7999877929688</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>868</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>881.2000122070312</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>881.2000122070312</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>48224</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>884.9500122070312</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>908</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>876.5</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>892.0499877929688</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>892.0499877929688</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>326398</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1421"/>
+  <dimension ref="A1:R1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79821,7 +79821,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79875,7 +79877,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79929,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79983,7 +79989,9 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -80037,7 +80045,225 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>892.0499877929688</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>947</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>871.5499877929688</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>885.8499755859375</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>885.8499755859375</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>877793</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>875</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>886.4500122070312</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>855.5</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>858.5999755859375</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>858.5999755859375</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>117135</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>851.2000122070312</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>858</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>813</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>818.5499877929688</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>818.5499877929688</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>166205</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>814</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>866</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>810.7999877929688</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>844.1500244140625</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>844.1500244140625</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>86110</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1425"/>
+  <dimension ref="A1:R1429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80101,7 +80101,9 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2" t="n">
@@ -80155,7 +80157,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80209,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80263,7 +80269,225 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>841.4000244140625</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>855.2000122070312</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>831.0499877929688</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>844.25</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>844.25</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>76102</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>838</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>858</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>831.9500122070312</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>838.9000244140625</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>838.9000244140625</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>99639</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>838.9000244140625</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>846.4500122070312</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>832.1500244140625</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>842.0999755859375</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>842.0999755859375</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>56681</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>837</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>851.2000122070312</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>834.5</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>842.0999755859375</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>842.0999755859375</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>103442</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1429"/>
+  <dimension ref="A1:R1434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80093,7 +80093,7 @@
         <v>46</v>
       </c>
       <c r="O1422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1422" t="n">
         <v>0</v>
@@ -80325,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80379,7 +80381,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80433,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80487,7 +80493,279 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>847.3499755859375</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>927</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>847.3499755859375</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>897.5999755859375</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>897.5999755859375</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>2441698</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>895.1500244140625</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>899.2000122070312</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>876.5499877929688</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>892.0499877929688</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>892.0499877929688</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>138508</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>899.8499755859375</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>903</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>876</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>878.7000122070312</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>878.7000122070312</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>87260</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>884.5499877929688</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>910.9500122070312</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>878.5</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>893.4000244140625</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>893.4000244140625</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>226784</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>914</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>885.5</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>890.0999755859375</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>890.0999755859375</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>133397</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1434"/>
+  <dimension ref="A1:R1439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80261,7 +80261,7 @@
         <v>46</v>
       </c>
       <c r="O1425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1425" t="n">
         <v>0</v>
@@ -80549,7 +80549,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80603,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80657,7 +80661,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80711,7 +80717,9 @@
       <c r="Q1433" t="n">
         <v>2</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80765,7 +80773,279 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>890</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>898.1500244140625</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>877.2000122070312</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>878.5999755859375</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>878.5999755859375</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>223707</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>887.4000244140625</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>901.5999755859375</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>877</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>889.9000244140625</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>889.9000244140625</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>336402</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>889.9500122070312</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>919</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>889.0999755859375</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>892.8499755859375</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>892.8499755859375</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>610891</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>899.5</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>907.5</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>886.5999755859375</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>893.75</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>893.75</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>138915</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>895.9000244140625</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>910.8499755859375</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>892.0999755859375</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>898</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>898</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>585896</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1439"/>
+  <dimension ref="A1:R1449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80829,7 +80829,9 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
@@ -80883,7 +80885,9 @@
       <c r="Q1436" t="n">
         <v>1</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80937,7 +80941,9 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
@@ -80991,7 +80997,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -81045,7 +81053,529 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>898</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>972</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>890.6500244140625</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>928.5499877929688</v>
+      </c>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="n">
+        <v>2063359</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>935.0499877929688</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>939</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>905.5499877929688</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>921.7999877929688</v>
+      </c>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="n">
+        <v>453709</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>923.7999877929688</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>939.9000244140625</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>913.5499877929688</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>927.0999755859375</v>
+      </c>
+      <c r="F1442" t="inlineStr"/>
+      <c r="G1442" t="n">
+        <v>406059</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>927.0999755859375</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>927.0999755859375</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F1443" t="inlineStr"/>
+      <c r="G1443" t="n">
+        <v>6402769</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>1009.650024414062</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>1052.449951171875</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>959.25</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>1007.549987792969</v>
+      </c>
+      <c r="F1444" t="inlineStr"/>
+      <c r="G1444" t="n">
+        <v>4105622</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>1007.549987792969</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>1044.900024414062</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>971</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>975.9500122070312</v>
+      </c>
+      <c r="F1445" t="inlineStr"/>
+      <c r="G1445" t="n">
+        <v>1326353</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>976.5</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>1007.799987792969</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>968.5499877929688</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>996.75</v>
+      </c>
+      <c r="F1446" t="inlineStr"/>
+      <c r="G1446" t="n">
+        <v>750547</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>981.2999877929688</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F1447" t="inlineStr"/>
+      <c r="G1447" t="n">
+        <v>366651</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>989.9500122070312</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>1020.450012207031</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>982.0999755859375</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>1007.549987792969</v>
+      </c>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="n">
+        <v>340987</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>1004.099975585938</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>968.1500244140625</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>976.7000122070312</v>
+      </c>
+      <c r="F1449" t="inlineStr"/>
+      <c r="G1449" t="n">
+        <v>358698</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1449"/>
+  <dimension ref="A1:R1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81107,7 +81107,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81159,7 +81161,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81211,7 +81215,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81263,7 +81269,9 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" s="2" t="n">
@@ -81315,7 +81323,9 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
@@ -81367,7 +81377,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81419,7 +81431,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81471,7 +81485,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81523,7 +81539,9 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
@@ -81575,7 +81593,217 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>980</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>992.4500122070312</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>926</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>961.8499755859375</v>
+      </c>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="n">
+        <v>653105</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>965.9500122070312</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>985</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>950.3499755859375</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>980.2999877929688</v>
+      </c>
+      <c r="F1451" t="inlineStr"/>
+      <c r="G1451" t="n">
+        <v>282715</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>981</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>987.5499877929688</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>961</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>975.2000122070312</v>
+      </c>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="n">
+        <v>192015</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>985</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>955.7000122070312</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>989.0999755859375</v>
+      </c>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="n">
+        <v>995142</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1453"/>
+  <dimension ref="A1:R1458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81315,7 +81315,7 @@
         <v>50</v>
       </c>
       <c r="O1444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1444" t="n">
         <v>0</v>
@@ -81647,7 +81647,9 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81699,7 +81701,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81751,7 +81755,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81803,7 +81809,269 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>989.0999755859375</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>997.4500122070312</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>977.5499877929688</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>981.2000122070312</v>
+      </c>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="n">
+        <v>305276</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>986</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>992.5499877929688</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>952.9500122070312</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>974.2000122070312</v>
+      </c>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="n">
+        <v>501806</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>975</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>973.5499877929688</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>1014.700012207031</v>
+      </c>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="n">
+        <v>465915</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>1015.950012207031</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>1050.099975585938</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>1009.450012207031</v>
+      </c>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="n">
+        <v>723479</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>1013.700012207031</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>988</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>992.75</v>
+      </c>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="n">
+        <v>164252</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1458"/>
+  <dimension ref="A1:R1463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81863,7 +81863,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81915,7 +81917,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81967,7 +81971,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -82019,7 +82025,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -82071,7 +82079,269 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>1000.650024414062</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>950.1500244140625</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>955.2000122070312</v>
+      </c>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="n">
+        <v>346110</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>957.9500122070312</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>967.5</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>943</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>957.75</v>
+      </c>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="n">
+        <v>267665</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>958</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>962.0999755859375</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>937</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>940.25</v>
+      </c>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="n">
+        <v>135512</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>939</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>949.0499877929688</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>914.4500122070312</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>919.25</v>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="n">
+        <v>153364</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>914</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>920.7000122070312</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>872.4500122070312</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>892.5499877929688</v>
+      </c>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="n">
+        <v>460769</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1463"/>
+  <dimension ref="A1:R1468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82017,7 +82017,7 @@
         <v>1</v>
       </c>
       <c r="O1457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1457" t="n">
         <v>0</v>
@@ -82133,7 +82133,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82185,7 +82187,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82237,7 +82241,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82289,7 +82295,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82341,7 +82349,269 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>865</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>882.9500122070312</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>848.4500122070312</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>862</v>
+      </c>
+      <c r="F1464" t="inlineStr"/>
+      <c r="G1464" t="n">
+        <v>296307</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>859</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>873.5999755859375</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>844</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>848.2999877929688</v>
+      </c>
+      <c r="F1465" t="inlineStr"/>
+      <c r="G1465" t="n">
+        <v>237449</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>859.5999755859375</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>874.9500122070312</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>836.5499877929688</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>842.2999877929688</v>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="n">
+        <v>188392</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>848.9000244140625</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>855.0499877929688</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>816.6500244140625</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>821.0499877929688</v>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="n">
+        <v>250900</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>825</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>811</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>815.8499755859375</v>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="n">
+        <v>154005</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1468"/>
+  <dimension ref="A1:R1473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82403,7 +82403,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82455,7 +82457,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82507,7 +82511,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82559,7 +82565,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82611,7 +82619,269 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>827</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>829.9000244140625</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>795.9500122070312</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>810.2999877929688</v>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="n">
+        <v>275061</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>810.8499755859375</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>814.4000244140625</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>774.1500244140625</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>784.8499755859375</v>
+      </c>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="n">
+        <v>245674</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>781.0499877929688</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>785</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>768.3499755859375</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>780.3499755859375</v>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="n">
+        <v>517678</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>775.5999755859375</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>797.9500122070312</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>770.8499755859375</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>780.8499755859375</v>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="n">
+        <v>126878</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>781.9000244140625</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>784.0999755859375</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>749</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>763.7000122070312</v>
+      </c>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="n">
+        <v>252296</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1473"/>
+  <dimension ref="A1:R1478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82673,7 +82673,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82725,7 +82727,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82777,7 +82781,9 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
@@ -82829,7 +82835,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82881,7 +82889,269 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>757.7000122070312</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>718.0499877929688</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1474" t="inlineStr"/>
+      <c r="G1474" t="n">
+        <v>331243</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>737.5499877929688</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>746</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>706</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>730.7000122070312</v>
+      </c>
+      <c r="F1475" t="inlineStr"/>
+      <c r="G1475" t="n">
+        <v>362440</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>731.2000122070312</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>771.9500122070312</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>731.2000122070312</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>764.4000244140625</v>
+      </c>
+      <c r="F1476" t="inlineStr"/>
+      <c r="G1476" t="n">
+        <v>531992</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>778</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>778</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>741.5499877929688</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>753.3499755859375</v>
+      </c>
+      <c r="F1477" t="inlineStr"/>
+      <c r="G1477" t="n">
+        <v>881240</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>747</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>778</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>745.2999877929688</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>770.9500122070312</v>
+      </c>
+      <c r="F1478" t="inlineStr"/>
+      <c r="G1478" t="n">
+        <v>492866</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1478"/>
+  <dimension ref="A1:R1483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82943,7 +82943,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -82995,7 +82997,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83047,7 +83051,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83099,7 +83105,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83151,7 +83159,269 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>782.4000244140625</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>843</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>770.0499877929688</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>799.7000122070312</v>
+      </c>
+      <c r="F1479" t="inlineStr"/>
+      <c r="G1479" t="n">
+        <v>1755614</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>810</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>822.9500122070312</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>790.2000122070312</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>796.9000244140625</v>
+      </c>
+      <c r="F1480" t="inlineStr"/>
+      <c r="G1480" t="n">
+        <v>256878</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>796.9000244140625</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>799.9000244140625</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>771.75</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>776.5</v>
+      </c>
+      <c r="F1481" t="inlineStr"/>
+      <c r="G1481" t="n">
+        <v>479832</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>771.6500244140625</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>780.6500244140625</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>736.7000122070312</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="F1482" t="inlineStr"/>
+      <c r="G1482" t="n">
+        <v>471683</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>750</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>759</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>733.0499877929688</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>738.25</v>
+      </c>
+      <c r="F1483" t="inlineStr"/>
+      <c r="G1483" t="n">
+        <v>298448</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1483"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83213,7 +83213,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83265,7 +83267,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83317,7 +83321,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83369,7 +83375,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83421,7 +83429,269 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>710.1500244140625</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>727.9000244140625</v>
+      </c>
+      <c r="F1484" t="inlineStr"/>
+      <c r="G1484" t="n">
+        <v>232082</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>730</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>740.2000122070312</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>690</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>699.3499755859375</v>
+      </c>
+      <c r="F1485" t="inlineStr"/>
+      <c r="G1485" t="n">
+        <v>193492</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>700</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>704.2999877929688</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>676</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>679.7999877929688</v>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="n">
+        <v>316555</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>685</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>670.4500122070312</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>674.7000122070312</v>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="n">
+        <v>152412</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>673</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>703.9500122070312</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>662.2000122070312</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>693.6500244140625</v>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="n">
+        <v>779437</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83205,7 +83205,7 @@
         <v>6</v>
       </c>
       <c r="O1479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1479" t="n">
         <v>0</v>
@@ -83483,7 +83483,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83535,7 +83537,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83587,7 +83591,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83639,7 +83645,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83691,7 +83699,269 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>680.0499877929688</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>695.5999755859375</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>660.7999877929688</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>674.8499755859375</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>524024</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>675.2999877929688</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>678.8499755859375</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>668.0499877929688</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>404688</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>666.9000244140625</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>706.2999877929688</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>658.6500244140625</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>701.7000122070312</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>258336</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>701.7000122070312</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>689.5499877929688</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>711.75</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>230734</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>712.3499755859375</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>724.7999877929688</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>698.2000122070312</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>718.2000122070312</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>164594</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1493"/>
+  <dimension ref="A1:R1507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82989,7 +82989,7 @@
         <v>5</v>
       </c>
       <c r="O1475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1475" t="n">
         <v>0</v>
@@ -83165,23 +83165,23 @@
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1479" t="n">
-        <v>782.4000244140625</v>
+        <v>772</v>
       </c>
       <c r="C1479" t="n">
-        <v>843</v>
+        <v>784.75</v>
       </c>
       <c r="D1479" t="n">
-        <v>770.0499877929688</v>
+        <v>754</v>
       </c>
       <c r="E1479" t="n">
-        <v>799.7000122070312</v>
+        <v>780.5499877929688</v>
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="n">
-        <v>1755614</v>
+        <v>154689</v>
       </c>
       <c r="H1479" t="n">
         <v>2025</v>
@@ -83190,7 +83190,7 @@
         <v>2</v>
       </c>
       <c r="J1479" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1479" t="n">
         <v>0</v>
@@ -83202,10 +83202,10 @@
         <v>0</v>
       </c>
       <c r="N1479" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1479" t="n">
         <v>0</v>
@@ -83213,29 +83213,27 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1479" t="inlineStr"/>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1480" t="n">
-        <v>810</v>
+        <v>782.4000244140625</v>
       </c>
       <c r="C1480" t="n">
-        <v>822.9500122070312</v>
+        <v>843</v>
       </c>
       <c r="D1480" t="n">
-        <v>790.2000122070312</v>
+        <v>770.0499877929688</v>
       </c>
       <c r="E1480" t="n">
-        <v>796.9000244140625</v>
+        <v>799.7000122070312</v>
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="n">
-        <v>256878</v>
+        <v>1755614</v>
       </c>
       <c r="H1480" t="n">
         <v>2025</v>
@@ -83244,7 +83242,7 @@
         <v>2</v>
       </c>
       <c r="J1480" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1480" t="n">
         <v>0</v>
@@ -83259,7 +83257,7 @@
         <v>6</v>
       </c>
       <c r="O1480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1480" t="n">
         <v>0</v>
@@ -83273,23 +83271,23 @@
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1481" t="n">
+        <v>810</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>822.9500122070312</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>790.2000122070312</v>
+      </c>
+      <c r="E1481" t="n">
         <v>796.9000244140625</v>
-      </c>
-      <c r="C1481" t="n">
-        <v>799.9000244140625</v>
-      </c>
-      <c r="D1481" t="n">
-        <v>771.75</v>
-      </c>
-      <c r="E1481" t="n">
-        <v>776.5</v>
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="n">
-        <v>479832</v>
+        <v>256878</v>
       </c>
       <c r="H1481" t="n">
         <v>2025</v>
@@ -83298,7 +83296,7 @@
         <v>2</v>
       </c>
       <c r="J1481" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1481" t="n">
         <v>0</v>
@@ -83327,23 +83325,23 @@
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1482" t="n">
-        <v>771.6500244140625</v>
+        <v>796.9000244140625</v>
       </c>
       <c r="C1482" t="n">
-        <v>780.6500244140625</v>
+        <v>799.9000244140625</v>
       </c>
       <c r="D1482" t="n">
-        <v>736.7000122070312</v>
+        <v>771.75</v>
       </c>
       <c r="E1482" t="n">
-        <v>747.5499877929688</v>
+        <v>776.5</v>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="n">
-        <v>471683</v>
+        <v>479832</v>
       </c>
       <c r="H1482" t="n">
         <v>2025</v>
@@ -83352,7 +83350,7 @@
         <v>2</v>
       </c>
       <c r="J1482" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1482" t="n">
         <v>0</v>
@@ -83381,23 +83379,23 @@
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1483" t="n">
-        <v>750</v>
+        <v>771.6500244140625</v>
       </c>
       <c r="C1483" t="n">
-        <v>759</v>
+        <v>780.6500244140625</v>
       </c>
       <c r="D1483" t="n">
-        <v>733.0499877929688</v>
+        <v>736.7000122070312</v>
       </c>
       <c r="E1483" t="n">
-        <v>738.25</v>
+        <v>747.5499877929688</v>
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="n">
-        <v>298448</v>
+        <v>471683</v>
       </c>
       <c r="H1483" t="n">
         <v>2025</v>
@@ -83406,7 +83404,7 @@
         <v>2</v>
       </c>
       <c r="J1483" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1483" t="n">
         <v>0</v>
@@ -83435,23 +83433,23 @@
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1484" t="n">
-        <v>746.5</v>
+        <v>750</v>
       </c>
       <c r="C1484" t="n">
-        <v>746.5</v>
+        <v>759</v>
       </c>
       <c r="D1484" t="n">
-        <v>710.1500244140625</v>
+        <v>733.0499877929688</v>
       </c>
       <c r="E1484" t="n">
-        <v>727.9000244140625</v>
+        <v>738.25</v>
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="n">
-        <v>232082</v>
+        <v>298448</v>
       </c>
       <c r="H1484" t="n">
         <v>2025</v>
@@ -83460,7 +83458,7 @@
         <v>2</v>
       </c>
       <c r="J1484" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1484" t="n">
         <v>0</v>
@@ -83472,7 +83470,7 @@
         <v>0</v>
       </c>
       <c r="N1484" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1484" t="n">
         <v>0</v>
@@ -83489,23 +83487,23 @@
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1485" t="n">
-        <v>730</v>
+        <v>746.5</v>
       </c>
       <c r="C1485" t="n">
-        <v>740.2000122070312</v>
+        <v>746.5</v>
       </c>
       <c r="D1485" t="n">
-        <v>690</v>
+        <v>710.1500244140625</v>
       </c>
       <c r="E1485" t="n">
-        <v>699.3499755859375</v>
+        <v>727.9000244140625</v>
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="n">
-        <v>193492</v>
+        <v>232082</v>
       </c>
       <c r="H1485" t="n">
         <v>2025</v>
@@ -83514,7 +83512,7 @@
         <v>2</v>
       </c>
       <c r="J1485" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1485" t="n">
         <v>0</v>
@@ -83543,23 +83541,23 @@
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1486" t="n">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="C1486" t="n">
-        <v>704.2999877929688</v>
+        <v>740.2000122070312</v>
       </c>
       <c r="D1486" t="n">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="E1486" t="n">
-        <v>679.7999877929688</v>
+        <v>699.3499755859375</v>
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="n">
-        <v>316555</v>
+        <v>193492</v>
       </c>
       <c r="H1486" t="n">
         <v>2025</v>
@@ -83568,7 +83566,7 @@
         <v>2</v>
       </c>
       <c r="J1486" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1486" t="n">
         <v>0</v>
@@ -83586,7 +83584,7 @@
         <v>0</v>
       </c>
       <c r="P1486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1486" t="n">
         <v>0</v>
@@ -83597,23 +83595,23 @@
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1487" t="n">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="C1487" t="n">
-        <v>702.9000244140625</v>
+        <v>704.2999877929688</v>
       </c>
       <c r="D1487" t="n">
-        <v>670.4500122070312</v>
+        <v>676</v>
       </c>
       <c r="E1487" t="n">
-        <v>674.7000122070312</v>
+        <v>679.7999877929688</v>
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="n">
-        <v>152412</v>
+        <v>316555</v>
       </c>
       <c r="H1487" t="n">
         <v>2025</v>
@@ -83622,7 +83620,7 @@
         <v>2</v>
       </c>
       <c r="J1487" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1487" t="n">
         <v>0</v>
@@ -83651,23 +83649,23 @@
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1488" t="n">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="C1488" t="n">
-        <v>703.9500122070312</v>
+        <v>702.9000244140625</v>
       </c>
       <c r="D1488" t="n">
-        <v>662.2000122070312</v>
+        <v>670.4500122070312</v>
       </c>
       <c r="E1488" t="n">
-        <v>693.6500244140625</v>
+        <v>674.7000122070312</v>
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="n">
-        <v>779437</v>
+        <v>152412</v>
       </c>
       <c r="H1488" t="n">
         <v>2025</v>
@@ -83676,7 +83674,7 @@
         <v>2</v>
       </c>
       <c r="J1488" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1488" t="n">
         <v>0</v>
@@ -83705,23 +83703,23 @@
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1489" t="n">
-        <v>680.0499877929688</v>
+        <v>673</v>
       </c>
       <c r="C1489" t="n">
-        <v>695.5999755859375</v>
+        <v>703.9500122070312</v>
       </c>
       <c r="D1489" t="n">
-        <v>660.7999877929688</v>
+        <v>662.2000122070312</v>
       </c>
       <c r="E1489" t="n">
-        <v>674.8499755859375</v>
+        <v>693.6500244140625</v>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="n">
-        <v>524024</v>
+        <v>779437</v>
       </c>
       <c r="H1489" t="n">
         <v>2025</v>
@@ -83730,7 +83728,7 @@
         <v>2</v>
       </c>
       <c r="J1489" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1489" t="n">
         <v>0</v>
@@ -83742,7 +83740,7 @@
         <v>0</v>
       </c>
       <c r="N1489" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1489" t="n">
         <v>0</v>
@@ -83753,27 +83751,29 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1490" t="n">
-        <v>675.2999877929688</v>
+        <v>680.0499877929688</v>
       </c>
       <c r="C1490" t="n">
-        <v>678.8499755859375</v>
+        <v>695.5999755859375</v>
       </c>
       <c r="D1490" t="n">
-        <v>634.0499877929688</v>
+        <v>660.7999877929688</v>
       </c>
       <c r="E1490" t="n">
-        <v>668.0499877929688</v>
+        <v>674.8499755859375</v>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="n">
-        <v>404688</v>
+        <v>524024</v>
       </c>
       <c r="H1490" t="n">
         <v>2025</v>
@@ -83782,7 +83782,7 @@
         <v>2</v>
       </c>
       <c r="J1490" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1490" t="n">
         <v>0</v>
@@ -83800,32 +83800,34 @@
         <v>0</v>
       </c>
       <c r="P1490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1491" t="n">
-        <v>666.9000244140625</v>
+        <v>675.2999877929688</v>
       </c>
       <c r="C1491" t="n">
-        <v>706.2999877929688</v>
+        <v>678.8499755859375</v>
       </c>
       <c r="D1491" t="n">
-        <v>658.6500244140625</v>
+        <v>634.0499877929688</v>
       </c>
       <c r="E1491" t="n">
-        <v>701.7000122070312</v>
+        <v>668.0499877929688</v>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="n">
-        <v>258336</v>
+        <v>404688</v>
       </c>
       <c r="H1491" t="n">
         <v>2025</v>
@@ -83834,7 +83836,7 @@
         <v>2</v>
       </c>
       <c r="J1491" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1491" t="n">
         <v>0</v>
@@ -83849,35 +83851,37 @@
         <v>8</v>
       </c>
       <c r="O1491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1492" t="n">
+        <v>666.9000244140625</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>706.2999877929688</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>658.6500244140625</v>
+      </c>
+      <c r="E1492" t="n">
         <v>701.7000122070312</v>
-      </c>
-      <c r="C1492" t="n">
-        <v>714.5</v>
-      </c>
-      <c r="D1492" t="n">
-        <v>689.5499877929688</v>
-      </c>
-      <c r="E1492" t="n">
-        <v>711.75</v>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="n">
-        <v>230734</v>
+        <v>258336</v>
       </c>
       <c r="H1492" t="n">
         <v>2025</v>
@@ -83886,7 +83890,7 @@
         <v>2</v>
       </c>
       <c r="J1492" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1492" t="n">
         <v>0</v>
@@ -83909,27 +83913,29 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1493" t="n">
-        <v>712.3499755859375</v>
+        <v>701.7000122070312</v>
       </c>
       <c r="C1493" t="n">
-        <v>724.7999877929688</v>
+        <v>714.5</v>
       </c>
       <c r="D1493" t="n">
-        <v>698.2000122070312</v>
+        <v>689.5499877929688</v>
       </c>
       <c r="E1493" t="n">
-        <v>718.2000122070312</v>
+        <v>711.75</v>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="n">
-        <v>164594</v>
+        <v>230734</v>
       </c>
       <c r="H1493" t="n">
         <v>2025</v>
@@ -83938,7 +83944,7 @@
         <v>2</v>
       </c>
       <c r="J1493" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1493" t="n">
         <v>0</v>
@@ -83961,7 +83967,739 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>712.3499755859375</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>724.7999877929688</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>698.2000122070312</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>718.2000122070312</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>164594</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>708</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>717.7999877929688</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>694</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>710.2000122070312</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>541302</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>703.7000122070312</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>726</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>696.9000244140625</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>718.5999755859375</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>747477</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>744.5</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>720</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>732.3499755859375</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>358895</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>726.2000122070312</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>761</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>695</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>737.0499877929688</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>1100294</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>743</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>761</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>709</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>749.5</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>293961</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>740</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>751.4000244140625</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>719.5</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>747.25</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>149326</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>747</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>736.5499877929688</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>772.2999877929688</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>221006</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>779.9000244140625</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>782.7999877929688</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>764.25</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>778.0999755859375</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>183837</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>770</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>794</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>766.0499877929688</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>790.2999877929688</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>210808</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>790.2999877929688</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>819.9000244140625</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>771.5499877929688</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>793.3499755859375</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>735163</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>781</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>787.5499877929688</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>760.7000122070312</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>772.6500244140625</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>193272</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>776.0999755859375</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>789.9000244140625</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>762</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>196267</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>784.2999877929688</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>761.2000122070312</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>767.2999877929688</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>151774</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1507"/>
+  <dimension ref="A1:R1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83213,7 +83213,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83590,7 +83592,7 @@
         <v>0</v>
       </c>
       <c r="R1486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487">
@@ -84075,7 +84077,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84127,7 +84131,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84179,7 +84185,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84231,7 +84239,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84283,7 +84293,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84335,7 +84347,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84387,7 +84401,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84439,7 +84455,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84491,7 +84509,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84543,7 +84563,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84595,7 +84617,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84647,7 +84671,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84699,7 +84725,269 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>766</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>778.9500122070312</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>754</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>761.8499755859375</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>339843</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>761.8499755859375</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>761.8499755859375</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>761.8499755859375</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>761.8499755859375</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>763</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>807.9500122070312</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>763</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>793.9500122070312</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>612364</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>793.9500122070312</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>808.8499755859375</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>789</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>123468</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>807.9000244140625</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>825.9000244140625</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>797.0999755859375</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>815.8499755859375</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>156917</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1512"/>
+  <dimension ref="A1:R1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84779,7 +84779,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84831,7 +84833,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -84883,7 +84887,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -84935,7 +84941,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -84987,7 +84995,477 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>824</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>879.7000122070312</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>818.3499755859375</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>864.2000122070312</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>587471</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>878</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>883.2999877929688</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>850.2000122070312</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>866.7000122070312</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>340258</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>873.1500244140625</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>877.5</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>837.7999877929688</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>845</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>130548</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>845</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>877</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>835.2999877929688</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>839.5999755859375</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>377702</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>840</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>853</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>814</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>819.4500122070312</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>141241</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>819.9000244140625</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>859</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>815.7999877929688</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>846.75</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>141456</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>846.75</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>870.2000122070312</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>864.2999877929688</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>209514</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>863</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>876.7000122070312</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>856.4000244140625</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>872.8499755859375</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>108167</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>860.0499877929688</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>870.2000122070312</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>813.0999755859375</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>827.0499877929688</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>140258</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1521"/>
+  <dimension ref="A1:R1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85049,7 +85049,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85093,7 +85095,7 @@
         <v>13</v>
       </c>
       <c r="O1514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1514" t="n">
         <v>0</v>
@@ -85101,7 +85103,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85153,7 +85157,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85205,7 +85211,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85257,7 +85265,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85309,7 +85319,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85361,7 +85373,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85413,7 +85427,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85465,7 +85481,217 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>756.9500122070312</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>822</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>753.5999755859375</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>810.8499755859375</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>262127</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>816.9500122070312</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>833.9500122070312</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>825</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>75337</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>817.5</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>822.9000244140625</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>792.2999877929688</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>799.5499877929688</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>68511</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>805.9500122070312</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>828.5</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>798.0499877929688</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>819.7999877929688</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>178520</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1525"/>
+  <dimension ref="A1:R1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85535,7 +85535,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85587,7 +85589,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85639,7 +85643,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85691,7 +85697,165 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>825.3499755859375</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>846</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>822.1500244140625</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>830.7999877929688</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>160147</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>828.5</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>835</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>819</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>823.1500244140625</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>63406</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>818</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>830.0999755859375</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>803.2999877929688</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>811.4000244140625</v>
+      </c>
+      <c r="F1528" t="inlineStr"/>
+      <c r="G1528" t="n">
+        <v>113019</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1528"/>
+  <dimension ref="A1:R1537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85527,7 +85527,7 @@
         <v>15</v>
       </c>
       <c r="O1522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1522" t="n">
         <v>0</v>
@@ -85751,7 +85751,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85803,7 +85805,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -85855,7 +85859,477 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>817.2000122070312</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>834.9000244140625</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>812</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>828.75</v>
+      </c>
+      <c r="F1529" t="inlineStr"/>
+      <c r="G1529" t="n">
+        <v>101793</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>835</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>835</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>819.0499877929688</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>829.0499877929688</v>
+      </c>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="n">
+        <v>69054</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>828</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>833.9500122070312</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>813.0999755859375</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>818.7999877929688</v>
+      </c>
+      <c r="F1531" t="inlineStr"/>
+      <c r="G1531" t="n">
+        <v>78471</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>822.2000122070312</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>831.4500122070312</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>819</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>824.2000122070312</v>
+      </c>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="n">
+        <v>60348</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>824.2000122070312</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>829</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>801.9000244140625</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>825.5499877929688</v>
+      </c>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="n">
+        <v>141183</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>818.0499877929688</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>862.3499755859375</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>802.25</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>812.9000244140625</v>
+      </c>
+      <c r="F1534" t="inlineStr"/>
+      <c r="G1534" t="n">
+        <v>420386</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>814.5999755859375</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>830.8499755859375</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>813</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>813.9500122070312</v>
+      </c>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="n">
+        <v>61963</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>814.4000244140625</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>819</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>785</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>791.5499877929688</v>
+      </c>
+      <c r="F1536" t="inlineStr"/>
+      <c r="G1536" t="n">
+        <v>101059</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>786.2999877929688</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>810.7999877929688</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>780</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>800.7999877929688</v>
+      </c>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="n">
+        <v>522284</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CHALET.NS.xlsx
+++ b/stock_historical_data/1d/CHALET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1537"/>
+  <dimension ref="A1:R1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="Q151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R151" t="n">
         <v>1</v>
@@ -85913,7 +85913,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -85965,7 +85967,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86017,7 +86021,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86069,7 +86075,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86121,7 +86129,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86173,7 +86183,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86225,7 +86237,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86277,7 +86291,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86329,7 +86345,529 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>811.4000244140625</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>833</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>804.7999877929688</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>824.25</v>
+      </c>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="n">
+        <v>119921</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>828.5999755859375</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>830</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>802.2000122070312</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>807.9500122070312</v>
+      </c>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="n">
+        <v>169221</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>788.5499877929688</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>828</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>785</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>810.75</v>
+      </c>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="n">
+        <v>115594</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>810.75</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>828.0999755859375</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>790.5499877929688</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>800.0999755859375</v>
+      </c>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="n">
+        <v>62566</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>793</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>802.75</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>768.4000244140625</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>798.4000244140625</v>
+      </c>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="n">
+        <v>270874</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>822</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>875.0499877929688</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>811.1500244140625</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>869.9500122070312</v>
+      </c>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="n">
+        <v>427793</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>885.9000244140625</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>897.9500122070312</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>846.4000244140625</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>874.7999877929688</v>
+      </c>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="n">
+        <v>984507</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>874</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>936.6500244140625</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>866.7999877929688</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>919.2999877929688</v>
+      </c>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="n">
+        <v>796109</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>921.9000244140625</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>928</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>900.2000122070312</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>913.7000122070312</v>
+      </c>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="n">
+        <v>278404</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>911</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>917.0999755859375</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>895.3499755859375</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>902.9000244140625</v>
+      </c>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="n">
+        <v>196413</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
